--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
@@ -58,160 +58,106 @@
     <t>boring</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -590,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS31"/>
+  <dimension ref="A1:BS24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,28 +544,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AB1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AK1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AT1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="BC1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="BL1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -821,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01788637138519236</v>
+        <v>0.01659463801452115</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.01035451709441271</v>
+        <v>0.01123205618781955</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02117571411509954</v>
+        <v>0.01968474562273891</v>
       </c>
       <c r="U3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -887,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AC3">
-        <v>0.01208148270022715</v>
+        <v>0.1391563408448962</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -911,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.0259832150280408</v>
+        <v>0.02420105674244178</v>
       </c>
       <c r="AM3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -935,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AU3">
-        <v>0.01460550935487902</v>
+        <v>0.1101731961340171</v>
       </c>
       <c r="AV3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -959,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03367521648874683</v>
+        <v>0.03142715453396637</v>
       </c>
       <c r="BE3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BF3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -983,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BM3">
-        <v>0.08712850421407733</v>
+        <v>0.09526561661990493</v>
       </c>
       <c r="BN3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1007,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1015,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01490229887223029</v>
+        <v>0.01657062451893663</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1033,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.009664798929080474</v>
+        <v>0.01045283534755785</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1057,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01763212800595708</v>
+        <v>0.01957068151871244</v>
       </c>
       <c r="U4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1081,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AC4">
-        <v>0.01145549809334427</v>
+        <v>0.1286703915221739</v>
       </c>
       <c r="AD4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1105,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02162187827832701</v>
+        <v>0.02395538021069247</v>
       </c>
       <c r="AM4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1129,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AU4">
-        <v>0.01407267379496058</v>
+        <v>0.1023121353888838</v>
       </c>
       <c r="AV4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1153,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02800547871411891</v>
+        <v>0.03097089811786052</v>
       </c>
       <c r="BE4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BF4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1177,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="BM4">
-        <v>0.0856127455284799</v>
+        <v>0.08875467628359693</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1201,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1209,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.005210084435963589</v>
+        <v>0.005270015512158693</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1230,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.009652756467360449</v>
+        <v>0.01042882185197334</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1251,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.006144073997829173</v>
+        <v>0.006215369381678524</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -1278,16 +1224,16 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AC5">
-        <v>0.01139829640017415</v>
+        <v>0.1275117003071975</v>
       </c>
       <c r="AD5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1299,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.007509135665171181</v>
+        <v>0.007597040421745971</v>
       </c>
       <c r="AM5">
         <v>6</v>
@@ -1326,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AU5">
-        <v>0.01394947014813264</v>
+        <v>0.1009347034591083</v>
       </c>
       <c r="AV5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1347,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.009693234332918394</v>
+        <v>0.009807714085853885</v>
       </c>
       <c r="BE5">
         <v>6</v>
@@ -1374,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="BM5">
-        <v>0.08470910173656065</v>
+        <v>0.08726473431975267</v>
       </c>
       <c r="BN5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1395,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1403,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003718048179482556</v>
+        <v>0.00376086629502985</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1424,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.008878741069988042</v>
+        <v>0.009733648246257456</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1445,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004372280943257948</v>
+        <v>0.004423254686338023</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1472,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC6">
-        <v>0.01037189994110045</v>
+        <v>0.1210811702368926</v>
       </c>
       <c r="AD6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1493,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005328467290314287</v>
+        <v>0.005391360796711507</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1520,16 +1466,16 @@
         <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AU6">
-        <v>0.01255420906041857</v>
+        <v>0.09789465446818926</v>
       </c>
       <c r="AV6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1541,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006858365445604433</v>
+        <v>0.006940330573309081</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1568,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BM6">
-        <v>0.07686783650752846</v>
+        <v>0.08596859085689955</v>
       </c>
       <c r="BN6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BO6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1589,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1597,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003712026948622544</v>
+        <v>0.00375486292113372</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1618,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.005201343470646404</v>
+        <v>0.005238424421571186</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1645,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004343680096672888</v>
+        <v>0.004394738660331407</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1666,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AC7">
-        <v>0.00615514473645381</v>
+        <v>0.0668556584128817</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1693,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.005266865466900314</v>
+        <v>0.005329941663774181</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1714,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AU7">
-        <v>0.007549161971095404</v>
+        <v>0.06105902947070587</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1741,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.006743962059264197</v>
+        <v>0.006826266469282619</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1762,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="BM7">
-        <v>0.05211981103307559</v>
+        <v>0.05807751356788341</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1791,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002978051282102053</v>
+        <v>0.003012295060361558</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1812,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.004457434227574058</v>
+        <v>0.004489220450790142</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1839,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003514985262557393</v>
+        <v>0.003555713364674387</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1860,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AC8">
-        <v>0.005271752510305399</v>
+        <v>0.05781807310887988</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1887,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004299734926299814</v>
+        <v>0.004349940117131601</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1908,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AU8">
-        <v>0.006461910000451207</v>
+        <v>0.05491975863779197</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1935,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005555334388287688</v>
+        <v>0.005620702921063143</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1956,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="BM8">
-        <v>0.04653765528384152</v>
+        <v>0.05342900068638073</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1985,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00297203005124204</v>
+        <v>0.00297627481698478</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2003,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.00383724744899278</v>
+        <v>0.003740016480009096</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2027,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003486384415972335</v>
+        <v>0.003384617208634694</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2051,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AC9">
-        <v>0.00438836028415699</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2081,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004238133102885841</v>
+        <v>0.003981425319507645</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2099,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AU9">
-        <v>0.005374658029807011</v>
+        <v>0.04878048780487806</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2129,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005440931001947452</v>
+        <v>0.004936318296904366</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2147,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BM9">
-        <v>0.04095549953460747</v>
+        <v>0.04878048780487804</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2179,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002232033153861536</v>
+        <v>0.002257720451797136</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2200,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.003713524984501714</v>
+        <v>0.002229601790654747</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2221,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.00262908873527178</v>
+        <v>0.002659656017004137</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2248,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AC10">
-        <v>0.003476367211423522</v>
+        <v>0.03012597158938623</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2269,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003209400738871367</v>
+        <v>0.003247100304614369</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2296,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AU10">
-        <v>0.004225804235748841</v>
+        <v>0.03581323017416253</v>
       </c>
       <c r="AV10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2317,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.004137899944630707</v>
+        <v>0.004187011164790742</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2344,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="BM10">
-        <v>0.03492152188941378</v>
+        <v>0.03873849105995054</v>
       </c>
       <c r="BN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2365,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2373,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002232033153861536</v>
+        <v>0.002257720451797136</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2394,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.002963594510569356</v>
+        <v>0.002157561303901191</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2415,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.00262908873527178</v>
+        <v>0.002659656017004137</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2442,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AC11">
-        <v>0.00262157583186017</v>
+        <v>0.02664989794445705</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2463,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003209400738871367</v>
+        <v>0.003247100304614369</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2490,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AU11">
-        <v>0.003200154088518617</v>
+        <v>0.03168093438483608</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2511,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004137899944630707</v>
+        <v>0.004187011164790742</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2538,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BM11">
-        <v>0.02979118803613936</v>
+        <v>0.03483494916036998</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2567,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002232033153861536</v>
+        <v>0.002257720451797136</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2588,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.002225706498357023</v>
+        <v>0.001605250905457265</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2609,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.00262908873527178</v>
+        <v>0.002659656017004137</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2636,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AC12">
-        <v>0.00262157583186017</v>
+        <v>0.02166773189287261</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2663,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003209400738871367</v>
+        <v>0.003247100304614369</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2684,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AU12">
-        <v>0.003200154088518617</v>
+        <v>0.03036267530613636</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2711,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004137899944630707</v>
+        <v>0.004187011164790742</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2732,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BM12">
-        <v>0.02979118803613936</v>
+        <v>0.03483494916036998</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2761,13 +2707,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002232033153861536</v>
+        <v>0.001503145843232714</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2782,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.002225706498357023</v>
+        <v>0.001492404567665961</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2809,13 +2755,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.00262908873527178</v>
+        <v>0.001763598669333886</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2830,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AC13">
-        <v>0.002564374138690053</v>
+        <v>0.02166773189287261</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2851,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003209400738871367</v>
+        <v>0.002144260492097138</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2878,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AU13">
-        <v>0.003076950441690671</v>
+        <v>0.03036267530613636</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2899,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004137899944630707</v>
+        <v>0.00275331940851834</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -2926,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BM13">
-        <v>0.0288875442442201</v>
+        <v>0.03483494916036998</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -2947,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2955,13 +2901,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002232033153861536</v>
+        <v>0.001503145843232714</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2976,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.002213664036636998</v>
+        <v>0.001492404567665961</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2997,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.00262908873527178</v>
+        <v>0.001763598669333886</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3024,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC14">
-        <v>0.002325865312044332</v>
+        <v>0.02166773189287261</v>
       </c>
       <c r="AD14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -3045,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003209400738871367</v>
+        <v>0.002144260492097138</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3072,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AU14">
-        <v>0.002337728560722994</v>
+        <v>0.03036267530613636</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3093,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004137899944630707</v>
+        <v>0.00275331940851834</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3120,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="BM14">
-        <v>0.0242090322869053</v>
+        <v>0.03483494916036998</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3149,13 +3095,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002232033153861536</v>
+        <v>0.001503145843232714</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3170,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.002141409266316849</v>
+        <v>0.001492404567665961</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3191,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.00262908873527178</v>
+        <v>0.001763598669333886</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3218,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AC15">
-        <v>0.002221163979669346</v>
+        <v>0.02166773189287261</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3239,19 +3185,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003209400738871367</v>
+        <v>0.002144260492097138</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3266,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AU15">
-        <v>0.002112902117874421</v>
+        <v>0.03036267530613636</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3293,13 +3239,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004137899944630707</v>
+        <v>0.00275331940851834</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3314,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BM15">
-        <v>0.0242090322869053</v>
+        <v>0.03446246366940892</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3335,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3343,13 +3289,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002232033153861536</v>
+        <v>0.001503145843232714</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3364,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.001481797255284678</v>
+        <v>0.001492404567665961</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3391,13 +3337,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00262908873527178</v>
+        <v>0.001763598669333886</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3412,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AC16">
-        <v>0.001738183605711761</v>
+        <v>0.02137805908912851</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3433,19 +3379,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003209400738871367</v>
+        <v>0.002144260492097138</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3460,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AU16">
-        <v>0.002112902117874421</v>
+        <v>0.03001831732369249</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3481,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004137899944630707</v>
+        <v>0.00275331940851834</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3508,10 +3454,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="BM16">
-        <v>0.0242090322869053</v>
+        <v>0.03446246366940892</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3529,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3537,13 +3483,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00218988453784145</v>
+        <v>0.001503145843232714</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3555,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.001481797255284678</v>
+        <v>0.001486401193769831</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3579,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002428882809176368</v>
+        <v>0.001763598669333886</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3603,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC17">
-        <v>0.001738183605711761</v>
+        <v>0.02137805908912851</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3627,19 +3573,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002778187974973556</v>
+        <v>0.002144260492097138</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3651,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AU17">
-        <v>0.002112902117874421</v>
+        <v>0.03001831732369249</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3675,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.003337076240249057</v>
+        <v>0.00275331940851834</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3699,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="BM17">
-        <v>0.0242090322869053</v>
+        <v>0.03446246366940892</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3723,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3731,7 +3677,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00148601502562102</v>
+        <v>0.001497142469336584</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3749,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.001481797255284678</v>
+        <v>0.001486401193769831</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3773,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001743192207986167</v>
+        <v>0.00173508264332727</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3797,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AC18">
-        <v>0.001738183605711761</v>
+        <v>0.02137805908912851</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3821,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.002119066551442921</v>
+        <v>0.002082841359159811</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3845,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AU18">
-        <v>0.002112902117874421</v>
+        <v>0.03001831732369249</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3869,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002720465500973726</v>
+        <v>0.002639255304491877</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3893,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="BM18">
-        <v>0.0242090322869053</v>
+        <v>0.03446246366940892</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3917,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3925,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00148601502562102</v>
+        <v>0.001485135721544325</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3943,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.001481797255284678</v>
+        <v>0.001486401193769831</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3967,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001743192207986167</v>
+        <v>0.001678050591314039</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -3991,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AC19">
-        <v>0.001738183605711761</v>
+        <v>0.02137805908912851</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4015,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.002119066551442921</v>
+        <v>0.001960003093285159</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4039,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AU19">
-        <v>0.002112902117874421</v>
+        <v>0.03001831732369249</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4063,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002720465500973726</v>
+        <v>0.002411127096438951</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4087,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="BM19">
-        <v>0.0242090322869053</v>
+        <v>0.0342686651684178</v>
       </c>
       <c r="BN19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4111,39 +4057,15 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.001481797255284678</v>
+        <v>0.001486401193769831</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4161,37 +4083,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AC20">
-        <v>0.001738183605711761</v>
+        <v>0.02079871348164031</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4209,37 +4107,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AU20">
-        <v>0.002112902117874421</v>
+        <v>0.02932960135880475</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4257,37 +4131,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BM20">
-        <v>0.0242090322869053</v>
+        <v>0.03371749268748679</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4305,39 +4155,15 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.001481797255284678</v>
+        <v>0.001474394445977572</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4355,37 +4181,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC21">
-        <v>0.001738183605711761</v>
+        <v>0.02079871348164031</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4403,37 +4205,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AU21">
-        <v>0.002112902117874421</v>
+        <v>0.02932960135880475</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4451,37 +4229,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="BM21">
-        <v>0.0242090322869053</v>
+        <v>0.03371749268748679</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4499,39 +4253,15 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:71">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.001481797255284678</v>
+        <v>0.001474394445977572</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4549,37 +4279,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AC22">
-        <v>0.001738183605711761</v>
+        <v>0.02050904067789621</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4597,37 +4303,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL22">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AU22">
-        <v>0.002112902117874421</v>
+        <v>0.02898524337636088</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4645,37 +4327,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD22">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE22">
-        <v>1</v>
-      </c>
-      <c r="BF22">
-        <v>1</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="BM22">
-        <v>0.0242090322869053</v>
+        <v>0.03334500719652573</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4693,39 +4351,15 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:71">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.001481797255284678</v>
+        <v>0.001468391072081442</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4743,37 +4377,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC23">
-        <v>0.001738183605711761</v>
+        <v>0.01906067665917572</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4791,37 +4401,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL23">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AU23">
-        <v>0.002112902117874421</v>
+        <v>0.02726345346414153</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4839,37 +4425,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD23">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE23">
-        <v>1</v>
-      </c>
-      <c r="BF23">
-        <v>1</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>1</v>
-      </c>
-      <c r="BI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="BM23">
-        <v>0.0242090322869053</v>
+        <v>0.03148257974172042</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4887,39 +4449,15 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.001481797255284678</v>
+        <v>0.001438374202600794</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4937,43 +4475,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AC24">
-        <v>0.001738183605711761</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -4985,43 +4499,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="AU24">
-        <v>0.002112902117874421</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24">
         <v>1</v>
@@ -5033,43 +4523,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD24">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE24">
-        <v>1</v>
-      </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="BM24">
-        <v>0.02375721039094568</v>
+        <v>0</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP24">
         <v>1</v>
@@ -5081,1269 +4547,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25">
-        <v>0.001481797255284678</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC25">
-        <v>0.001738183605711761</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU25">
-        <v>0.002051300294460447</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM25">
-        <v>0.02375721039094568</v>
-      </c>
-      <c r="BN25">
-        <v>1</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
-      </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.00148601502562102</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26">
-        <v>0.001475776024424666</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001743192207986167</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26">
-        <v>0.001709582759126702</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002119066551442921</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU26">
-        <v>0.002051300294460447</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.002720465500973726</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM26">
-        <v>0.02375721039094568</v>
-      </c>
-      <c r="BN26">
-        <v>1</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001479993794761008</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27">
-        <v>0.001475776024424666</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001714591361401108</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC27">
-        <v>0.001709582759126702</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002057464728028948</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU27">
-        <v>0.002051300294460447</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.00260606211463349</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM27">
-        <v>0.02346568149270458</v>
-      </c>
-      <c r="BN27">
-        <v>2</v>
-      </c>
-      <c r="BO27">
-        <v>2</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001479993794761008</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28">
-        <v>0.001475776024424666</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001714591361401108</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC28">
-        <v>0.001709582759126702</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002057464728028948</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU28">
-        <v>0.001989698471046474</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>2</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.00260606211463349</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM28">
-        <v>0.02330538849498605</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001479993794761008</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29">
-        <v>0.001469754793564653</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001714591361401108</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC29">
-        <v>0.001680981912541643</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002057464728028948</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU29">
-        <v>0.001989698471046474</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>2</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.00260606211463349</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM29">
-        <v>0.02330538849498605</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001473972563900995</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <v>0.001469754793564653</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001685990514816049</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC30">
-        <v>0.001680981912541643</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.001995862904614975</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>2</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU30">
-        <v>0.001435282060320717</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>11</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002491658728293255</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>2</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM30">
-        <v>0.01923899143134941</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.001415563715824541</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>11</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC31">
-        <v>0.001423574293276113</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>11</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU31">
-        <v>0.0001169221888119827</v>
-      </c>
-      <c r="AV31">
-        <v>5</v>
-      </c>
-      <c r="AW31">
-        <v>5</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>103</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>5</v>
-      </c>
-      <c r="BO31">
-        <v>5</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
